--- a/results/tables/final_tables_8_4.xlsx
+++ b/results/tables/final_tables_8_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecs\Dropbox (Boston University)\1_boston_university\8-Research Assistantship\ukData\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9CD94E-3F0F-4DFF-8693-D0BEC4CEC7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EDF25E-FDA8-42DC-A261-0DD9735F858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="656" firstSheet="7" activeTab="9" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="656" firstSheet="8" activeTab="10" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
   </bookViews>
   <sheets>
     <sheet name="education_classification" sheetId="15" r:id="rId1"/>
@@ -23,12 +23,13 @@
     <sheet name="indexes_make_sense" sheetId="6" r:id="rId8"/>
     <sheet name="skill_correlation" sheetId="7" r:id="rId9"/>
     <sheet name="theta_estimates" sheetId="2" r:id="rId10"/>
-    <sheet name="OLS_thetas" sheetId="8" r:id="rId11"/>
-    <sheet name="sigma_estimates" sheetId="3" r:id="rId12"/>
-    <sheet name="pi_estimates" sheetId="16" r:id="rId13"/>
-    <sheet name="dlnA estimates" sheetId="17" r:id="rId14"/>
-    <sheet name="top_jobs_skill" sheetId="5" r:id="rId15"/>
-    <sheet name="index_composition" sheetId="14" r:id="rId16"/>
+    <sheet name="lab_abstract" sheetId="18" r:id="rId11"/>
+    <sheet name="OLS_thetas" sheetId="8" r:id="rId12"/>
+    <sheet name="sigma_estimates" sheetId="3" r:id="rId13"/>
+    <sheet name="pi_estimates" sheetId="16" r:id="rId14"/>
+    <sheet name="dlnA estimates" sheetId="17" r:id="rId15"/>
+    <sheet name="top_jobs_skill" sheetId="5" r:id="rId16"/>
+    <sheet name="index_composition" sheetId="14" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'step-up'!$E$9:$F$32</definedName>
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="312">
   <si>
     <t>Occupation fixed-effects</t>
   </si>
@@ -1049,6 +1050,51 @@
   </si>
   <si>
     <t>Number obs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writing </t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>math subset</t>
+  </si>
+  <si>
+    <t>relation between education in each of eight itmes</t>
+  </si>
+  <si>
+    <t>Exclude planing others</t>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reading </t>
+  </si>
+  <si>
+    <t>problem solving</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>3-equation solution</t>
+  </si>
+  <si>
+    <t>2-equation solution</t>
+  </si>
+  <si>
+    <t>Definition 1</t>
+  </si>
+  <si>
+    <t>Definition 2</t>
+  </si>
+  <si>
+    <t>Definition 3</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1218,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1236,6 +1282,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,7 +1399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1551,6 +1609,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2387,8 +2457,8 @@
   </sheetPr>
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3747,6 +3817,1011 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CDE4BF-04E3-4DB6-8565-428D8409454E}">
+  <dimension ref="A2:S39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="103">
+        <v>0</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="I3" s="102" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="103">
+        <v>1</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="103">
+        <v>2</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="102" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="103">
+        <v>3</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="105" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="K9" s="106" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="K11" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="72">
+        <f>+I18</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="72">
+        <f t="shared" ref="E14:G14" si="0">+J18</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="72">
+        <f>+S18</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="72">
+        <f t="shared" ref="O14:Q14" si="1">+T18</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D15" s="73" t="str">
+        <f>+IF(M17=0,"",M17)</f>
+        <v/>
+      </c>
+      <c r="E15" s="73" t="str">
+        <f t="shared" ref="E15:G15" si="2">+IF(N17=0,"",N17)</f>
+        <v/>
+      </c>
+      <c r="F15" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G15" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N15" s="73" t="str">
+        <f>+IF(W17=0,"",W17)</f>
+        <v/>
+      </c>
+      <c r="O15" s="73" t="str">
+        <f t="shared" ref="O15:Q15" si="3">+IF(X17=0,"",X17)</f>
+        <v/>
+      </c>
+      <c r="P15" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q15" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="72">
+        <f>+I19</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="72">
+        <f t="shared" ref="E16:G16" si="4">+J19</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="72">
+        <f>+S19</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="72">
+        <f t="shared" ref="O16:Q16" si="5">+T19</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D17" s="73" t="str">
+        <f>+IF(M18=0,"",M18)</f>
+        <v>Bachelor +</v>
+      </c>
+      <c r="E17" s="73" t="str">
+        <f t="shared" ref="E17:G17" si="6">+IF(N18=0,"",N18)</f>
+        <v/>
+      </c>
+      <c r="F17" s="73" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G17" s="73" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N17" s="73" t="str">
+        <f>+IF(W18=0,"",W18)</f>
+        <v/>
+      </c>
+      <c r="O17" s="73" t="str">
+        <f t="shared" ref="O17:Q17" si="7">+IF(X18=0,"",X18)</f>
+        <v/>
+      </c>
+      <c r="P17" s="73" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q17" s="73" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="72">
+        <f>+I20</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="72">
+        <f t="shared" ref="E18:G18" si="8">+J20</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="72">
+        <f>+S20</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="72">
+        <f t="shared" ref="O18:Q18" si="9">+T20</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="19"/>
+      <c r="D19" s="74" t="str">
+        <f>+IF(M19=0,"",M19)</f>
+        <v/>
+      </c>
+      <c r="E19" s="74" t="str">
+        <f t="shared" ref="E19:G19" si="10">+IF(N19=0,"",N19)</f>
+        <v/>
+      </c>
+      <c r="F19" s="74" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G19" s="74" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="74" t="str">
+        <f>+IF(W19=0,"",W19)</f>
+        <v/>
+      </c>
+      <c r="O19" s="74" t="str">
+        <f t="shared" ref="O19:Q19" si="11">+IF(X19=0,"",X19)</f>
+        <v/>
+      </c>
+      <c r="P19" s="74" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q19" s="74" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="K21" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="72">
+        <f>+I28</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="72">
+        <f t="shared" ref="E24" si="12">+J28</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="72">
+        <f t="shared" ref="F24" si="13">+K28</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="72">
+        <f t="shared" ref="G24" si="14">+L28</f>
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24" s="72">
+        <f>+S28</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="72">
+        <f t="shared" ref="O24" si="15">+T28</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="72">
+        <f t="shared" ref="P24" si="16">+U28</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="72">
+        <f t="shared" ref="Q24" si="17">+V28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D25" s="73" t="str">
+        <f>+IF(M27=0,"",M27)</f>
+        <v/>
+      </c>
+      <c r="E25" s="73" t="str">
+        <f t="shared" ref="E25" si="18">+IF(N27=0,"",N27)</f>
+        <v/>
+      </c>
+      <c r="F25" s="73" t="str">
+        <f t="shared" ref="F25" si="19">+IF(O27=0,"",O27)</f>
+        <v/>
+      </c>
+      <c r="G25" s="73" t="str">
+        <f t="shared" ref="G25" si="20">+IF(P27=0,"",P27)</f>
+        <v/>
+      </c>
+      <c r="N25" s="73" t="str">
+        <f>+IF(W27=0,"",W27)</f>
+        <v/>
+      </c>
+      <c r="O25" s="73" t="str">
+        <f t="shared" ref="O25" si="21">+IF(X27=0,"",X27)</f>
+        <v/>
+      </c>
+      <c r="P25" s="73" t="str">
+        <f t="shared" ref="P25" si="22">+IF(Y27=0,"",Y27)</f>
+        <v/>
+      </c>
+      <c r="Q25" s="73" t="str">
+        <f t="shared" ref="Q25" si="23">+IF(Z27=0,"",Z27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="72">
+        <f>+I29</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="72">
+        <f t="shared" ref="E26" si="24">+J29</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="72">
+        <f t="shared" ref="F26" si="25">+K29</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="72">
+        <f t="shared" ref="G26" si="26">+L29</f>
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="72">
+        <f>+S29</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="72">
+        <f t="shared" ref="O26" si="27">+T29</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="72">
+        <f t="shared" ref="P26" si="28">+U29</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="72">
+        <f t="shared" ref="Q26" si="29">+V29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D27" s="73" t="str">
+        <f>+IF(M28=0,"",M28)</f>
+        <v>Bachelor +</v>
+      </c>
+      <c r="E27" s="73" t="str">
+        <f t="shared" ref="E27" si="30">+IF(N28=0,"",N28)</f>
+        <v/>
+      </c>
+      <c r="F27" s="73" t="str">
+        <f t="shared" ref="F27" si="31">+IF(O28=0,"",O28)</f>
+        <v/>
+      </c>
+      <c r="G27" s="73" t="str">
+        <f t="shared" ref="G27" si="32">+IF(P28=0,"",P28)</f>
+        <v/>
+      </c>
+      <c r="N27" s="73" t="str">
+        <f>+IF(W28=0,"",W28)</f>
+        <v/>
+      </c>
+      <c r="O27" s="73" t="str">
+        <f t="shared" ref="O27" si="33">+IF(X28=0,"",X28)</f>
+        <v/>
+      </c>
+      <c r="P27" s="73" t="str">
+        <f t="shared" ref="P27" si="34">+IF(Y28=0,"",Y28)</f>
+        <v/>
+      </c>
+      <c r="Q27" s="73" t="str">
+        <f t="shared" ref="Q27" si="35">+IF(Z28=0,"",Z28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="72">
+        <f>+I30</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="72">
+        <f t="shared" ref="E28" si="36">+J30</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="72">
+        <f t="shared" ref="F28" si="37">+K30</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="72">
+        <f t="shared" ref="G28" si="38">+L30</f>
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="72">
+        <f>+S30</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="72">
+        <f t="shared" ref="O28" si="39">+T30</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="72">
+        <f t="shared" ref="P28" si="40">+U30</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="72">
+        <f t="shared" ref="Q28" si="41">+V30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="19"/>
+      <c r="D29" s="74" t="str">
+        <f>+IF(M29=0,"",M29)</f>
+        <v/>
+      </c>
+      <c r="E29" s="74" t="str">
+        <f t="shared" ref="E29" si="42">+IF(N29=0,"",N29)</f>
+        <v/>
+      </c>
+      <c r="F29" s="74" t="str">
+        <f t="shared" ref="F29" si="43">+IF(O29=0,"",O29)</f>
+        <v/>
+      </c>
+      <c r="G29" s="74" t="str">
+        <f t="shared" ref="G29" si="44">+IF(P29=0,"",P29)</f>
+        <v/>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="74" t="str">
+        <f>+IF(W29=0,"",W29)</f>
+        <v/>
+      </c>
+      <c r="O29" s="74" t="str">
+        <f t="shared" ref="O29" si="45">+IF(X29=0,"",X29)</f>
+        <v/>
+      </c>
+      <c r="P29" s="74" t="str">
+        <f t="shared" ref="P29" si="46">+IF(Y29=0,"",Y29)</f>
+        <v/>
+      </c>
+      <c r="Q29" s="74" t="str">
+        <f t="shared" ref="Q29" si="47">+IF(Z29=0,"",Z29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="107" t="s">
+        <v>311</v>
+      </c>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="K31" s="107" t="s">
+        <v>311</v>
+      </c>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="72">
+        <f>+I38</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="72">
+        <f t="shared" ref="E34" si="48">+J38</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="72">
+        <f t="shared" ref="F34" si="49">+K38</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="72">
+        <f t="shared" ref="G34" si="50">+L38</f>
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>93</v>
+      </c>
+      <c r="N34" s="72">
+        <f>+S38</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="72">
+        <f t="shared" ref="O34" si="51">+T38</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="72">
+        <f t="shared" ref="P34" si="52">+U38</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="72">
+        <f t="shared" ref="Q34" si="53">+V38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="D35" s="73" t="str">
+        <f>+IF(M37=0,"",M37)</f>
+        <v/>
+      </c>
+      <c r="E35" s="73" t="str">
+        <f t="shared" ref="E35" si="54">+IF(N37=0,"",N37)</f>
+        <v/>
+      </c>
+      <c r="F35" s="73" t="str">
+        <f t="shared" ref="F35" si="55">+IF(O37=0,"",O37)</f>
+        <v/>
+      </c>
+      <c r="G35" s="73" t="str">
+        <f t="shared" ref="G35" si="56">+IF(P37=0,"",P37)</f>
+        <v/>
+      </c>
+      <c r="N35" s="73" t="str">
+        <f>+IF(W37=0,"",W37)</f>
+        <v/>
+      </c>
+      <c r="O35" s="73" t="str">
+        <f t="shared" ref="O35" si="57">+IF(X37=0,"",X37)</f>
+        <v/>
+      </c>
+      <c r="P35" s="73" t="str">
+        <f t="shared" ref="P35" si="58">+IF(Y37=0,"",Y37)</f>
+        <v/>
+      </c>
+      <c r="Q35" s="73" t="str">
+        <f t="shared" ref="Q35" si="59">+IF(Z37=0,"",Z37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="72">
+        <f>+I39</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="72">
+        <f t="shared" ref="E36" si="60">+J39</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="72">
+        <f t="shared" ref="F36" si="61">+K39</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="72">
+        <f t="shared" ref="G36" si="62">+L39</f>
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="72">
+        <f>+S39</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="72">
+        <f t="shared" ref="O36" si="63">+T39</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="72">
+        <f t="shared" ref="P36" si="64">+U39</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="72">
+        <f t="shared" ref="Q36" si="65">+V39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="D37" s="73" t="str">
+        <f>+IF(M38=0,"",M38)</f>
+        <v>Bachelor +</v>
+      </c>
+      <c r="E37" s="73" t="str">
+        <f t="shared" ref="E37" si="66">+IF(N38=0,"",N38)</f>
+        <v/>
+      </c>
+      <c r="F37" s="73" t="str">
+        <f t="shared" ref="F37" si="67">+IF(O38=0,"",O38)</f>
+        <v/>
+      </c>
+      <c r="G37" s="73" t="str">
+        <f t="shared" ref="G37" si="68">+IF(P38=0,"",P38)</f>
+        <v/>
+      </c>
+      <c r="N37" s="73" t="str">
+        <f>+IF(W38=0,"",W38)</f>
+        <v/>
+      </c>
+      <c r="O37" s="73" t="str">
+        <f t="shared" ref="O37" si="69">+IF(X38=0,"",X38)</f>
+        <v/>
+      </c>
+      <c r="P37" s="73" t="str">
+        <f t="shared" ref="P37" si="70">+IF(Y38=0,"",Y38)</f>
+        <v/>
+      </c>
+      <c r="Q37" s="73" t="str">
+        <f t="shared" ref="Q37" si="71">+IF(Z38=0,"",Z38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="72">
+        <f>+I40</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="72">
+        <f t="shared" ref="E38" si="72">+J40</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="72">
+        <f t="shared" ref="F38" si="73">+K40</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="72">
+        <f t="shared" ref="G38" si="74">+L40</f>
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="72">
+        <f>+S40</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="72">
+        <f t="shared" ref="O38" si="75">+T40</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="72">
+        <f t="shared" ref="P38" si="76">+U40</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="72">
+        <f t="shared" ref="Q38" si="77">+V40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="19"/>
+      <c r="D39" s="74" t="str">
+        <f>+IF(M39=0,"",M39)</f>
+        <v/>
+      </c>
+      <c r="E39" s="74" t="str">
+        <f t="shared" ref="E39" si="78">+IF(N39=0,"",N39)</f>
+        <v/>
+      </c>
+      <c r="F39" s="74" t="str">
+        <f t="shared" ref="F39" si="79">+IF(O39=0,"",O39)</f>
+        <v/>
+      </c>
+      <c r="G39" s="74" t="str">
+        <f t="shared" ref="G39" si="80">+IF(P39=0,"",P39)</f>
+        <v/>
+      </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="74" t="str">
+        <f>+IF(W39=0,"",W39)</f>
+        <v/>
+      </c>
+      <c r="O39" s="74" t="str">
+        <f t="shared" ref="O39" si="81">+IF(X39=0,"",X39)</f>
+        <v/>
+      </c>
+      <c r="P39" s="74" t="str">
+        <f t="shared" ref="P39" si="82">+IF(Y39=0,"",Y39)</f>
+        <v/>
+      </c>
+      <c r="Q39" s="74" t="str">
+        <f t="shared" ref="Q39" si="83">+IF(Z39=0,"",Z39)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="K11:S11"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="K21:S21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621AD9AE-E34E-4A18-B651-4D2CF9D0D43B}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -3958,7 +5033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C324394-3725-49AA-88D9-CE062D28E523}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -4950,7 +6025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4C7DBF-8E9C-4E7A-AD2C-6A1AFD2D3CE0}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
@@ -5299,7 +6374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED2790-90CA-437E-8990-4813411B73C2}">
   <dimension ref="A1:K41"/>
   <sheetViews>
@@ -5903,7 +6978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1118EAC5-EE01-4F6F-831E-9781C531891C}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -6137,12 +7212,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F0097E-5ADA-4F9F-8E43-EFEAF7A70026}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9789,10 +10864,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" topLeftCell="R5" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10274,14 +11349,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="61" t="s">
         <v>118</v>
       </c>
       <c r="B14" s="62">
         <v>156</v>
       </c>
-      <c r="T14" s="4"/>
+      <c r="T14" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="V14" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="W14" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="X14" s="24" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="61" t="s">
@@ -10290,7 +11379,25 @@
       <c r="B15" s="62">
         <v>16720</v>
       </c>
-      <c r="T15" s="4"/>
+      <c r="T15" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="X15" s="24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="T16" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="X16" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="24:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="X17" s="24" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10305,7 +11412,10 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A26"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AC41" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results/tables/final_tables_8_4.xlsx
+++ b/results/tables/final_tables_8_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecs\Dropbox (Boston University)\1_boston_university\8-Research Assistantship\ukData\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EDF25E-FDA8-42DC-A261-0DD9735F858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93665D3-A2BA-4BEE-9E17-0CFD69F9C9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="656" firstSheet="8" activeTab="10" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
   </bookViews>
@@ -1399,7 +1399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1562,6 +1562,8 @@
     <xf numFmtId="165" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1607,20 +1609,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2223,14 +2222,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
@@ -2332,14 +2331,14 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="88" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
@@ -2468,20 +2467,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -2796,11 +2795,11 @@
       <c r="B13" s="54">
         <v>62</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
       <c r="M13" s="81"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -2815,13 +2814,13 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
       <c r="G15" s="18">
         <f t="shared" ref="G15:I17" si="10">+C18/$B18</f>
         <v>2.2692799840412765</v>
@@ -2965,11 +2964,11 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="G24" s="86" t="s">
+      <c r="G24" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
     </row>
     <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="G25" s="8" t="s">
@@ -2995,13 +2994,13 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
       <c r="G26" s="18">
         <f t="shared" ref="G26:I28" si="11">+C29/$B29</f>
         <v>1.0840988998256753</v>
@@ -3178,20 +3177,20 @@
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G38" s="86" t="s">
+      <c r="G38" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
@@ -3483,20 +3482,20 @@
       <c r="E49" s="1"/>
     </row>
     <row r="51" spans="1:9" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
     </row>
     <row r="52" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G52" s="86" t="s">
+      <c r="G52" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="86"/>
-      <c r="I52" s="86"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
     </row>
     <row r="53" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="10" t="s">
@@ -3821,7 +3820,7 @@
   <dimension ref="A2:S39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3832,7 +3831,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="87" t="s">
         <v>306</v>
       </c>
       <c r="B2" s="19"/>
@@ -3845,146 +3844,135 @@
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="103">
+      <c r="A3" s="86">
         <v>0</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" t="s">
         <v>239</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="102" t="s">
+      <c r="H3" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="103">
+      <c r="A4" s="86">
         <v>1</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" t="s">
         <v>240</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="103">
+      <c r="A5" s="86">
         <v>2</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="103">
+      <c r="A6" s="86">
         <v>3</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" t="s">
         <v>239</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="104" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="K9" s="106" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="K9" s="105" t="s">
         <v>308</v>
       </c>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="103" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="K11" s="107" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="K11" s="103" t="s">
         <v>309</v>
       </c>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4244,28 +4232,28 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="103" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="K21" s="107" t="s">
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="K21" s="103" t="s">
         <v>310</v>
       </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4525,28 +4513,28 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="107" t="s">
+      <c r="A31" s="103" t="s">
         <v>311</v>
       </c>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="K31" s="107" t="s">
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="K31" s="103" t="s">
         <v>311</v>
       </c>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="107"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4847,20 +4835,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
@@ -5181,10 +5169,10 @@
         <v>1.06E-5</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="H10" s="101" t="s">
+      <c r="H10" s="106" t="s">
         <v>293</v>
       </c>
-      <c r="I10" s="101"/>
+      <c r="I10" s="106"/>
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5195,8 +5183,8 @@
       <c r="F11" s="28">
         <v>3.6207700000000002E-2</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
       <c r="L11" s="35"/>
       <c r="N11" s="35"/>
     </row>
@@ -5213,8 +5201,8 @@
       <c r="F12" s="28">
         <v>5.2985199999999999</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5230,8 +5218,8 @@
       <c r="F13" s="49">
         <v>30.137509999999999</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
       <c r="L13" s="35"/>
       <c r="N13" s="35"/>
     </row>
@@ -5399,8 +5387,8 @@
       <c r="E33" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
       <c r="L33" s="35"/>
     </row>
     <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5408,10 +5396,10 @@
         <v>290</v>
       </c>
       <c r="O34" s="79"/>
-      <c r="P34" s="90" t="s">
+      <c r="P34" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="Q34" s="90"/>
+      <c r="Q34" s="92"/>
     </row>
     <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10" t="s">
@@ -5541,10 +5529,10 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C40" s="9"/>
       <c r="F40" s="28"/>
-      <c r="H40" s="101" t="s">
+      <c r="H40" s="106" t="s">
         <v>293</v>
       </c>
-      <c r="I40" s="101"/>
+      <c r="I40" s="106"/>
       <c r="K40" t="s">
         <v>288</v>
       </c>
@@ -5562,8 +5550,8 @@
       <c r="F41" s="28">
         <v>1.365048</v>
       </c>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
       <c r="K41" t="s">
         <v>289</v>
       </c>
@@ -5576,8 +5564,8 @@
       <c r="F42" s="28">
         <v>-0.3439432</v>
       </c>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
     </row>
     <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="35">
@@ -5592,8 +5580,8 @@
       <c r="F43" s="49">
         <v>13.51919</v>
       </c>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B44" s="35">
@@ -7012,12 +7000,12 @@
       <c r="B3" s="62"/>
     </row>
     <row r="4" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7581,66 +7569,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="54"/>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="N1" s="87" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="N1" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="T1" s="87" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="T1" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="54"/>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="N2" s="88" t="s">
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="N2" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="T2" s="88" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="T2" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
     </row>
     <row r="3" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
@@ -8675,10 +8663,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="92"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -9213,13 +9201,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9333,12 +9321,12 @@
       <c r="E8" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
@@ -9637,12 +9625,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="13"/>
@@ -9976,13 +9964,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -10220,13 +10208,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="50"/>
@@ -10254,13 +10242,13 @@
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -10522,13 +10510,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
     </row>
     <row r="45" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -10896,36 +10884,36 @@
       <c r="AB2"/>
     </row>
     <row r="3" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
       <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -11444,35 +11432,35 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="96" t="s">
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B5" s="36" t="s">

--- a/results/tables/final_tables_8_4.xlsx
+++ b/results/tables/final_tables_8_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecs\Dropbox (Boston University)\1_boston_university\8-Research Assistantship\ukData\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93665D3-A2BA-4BEE-9E17-0CFD69F9C9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E418BFE5-89EA-467F-8D6D-AEC0D191481D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="656" firstSheet="8" activeTab="10" xr2:uid="{E382401A-5014-4F77-A3DB-04E9551C20F1}"/>
   </bookViews>
@@ -3819,8 +3819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CDE4BF-04E3-4DB6-8565-428D8409454E}">
   <dimension ref="A2:S39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4012,20 +4012,16 @@
         <v>93</v>
       </c>
       <c r="D14" s="72">
-        <f>+I18</f>
-        <v>0</v>
+        <v>0.248864529029136</v>
       </c>
       <c r="E14" s="72">
-        <f t="shared" ref="E14:G14" si="0">+J18</f>
-        <v>0</v>
+        <v>0.32228532721911801</v>
       </c>
       <c r="F14" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.97851029268032497</v>
       </c>
       <c r="G14" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3466172100891899E-2</v>
       </c>
       <c r="M14" t="s">
         <v>93</v>
@@ -4035,15 +4031,15 @@
         <v>0</v>
       </c>
       <c r="O14" s="72">
-        <f t="shared" ref="O14:Q14" si="1">+T18</f>
+        <f t="shared" ref="O14:Q14" si="0">+T18</f>
         <v>0</v>
       </c>
       <c r="P14" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q14" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4053,15 +4049,15 @@
         <v/>
       </c>
       <c r="E15" s="73" t="str">
-        <f t="shared" ref="E15:G15" si="2">+IF(N17=0,"",N17)</f>
+        <f t="shared" ref="E15:G15" si="1">+IF(N17=0,"",N17)</f>
         <v/>
       </c>
       <c r="F15" s="73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G15" s="73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="N15" s="73" t="str">
@@ -4069,15 +4065,15 @@
         <v/>
       </c>
       <c r="O15" s="73" t="str">
-        <f t="shared" ref="O15:Q15" si="3">+IF(X17=0,"",X17)</f>
+        <f t="shared" ref="O15:Q15" si="2">+IF(X17=0,"",X17)</f>
         <v/>
       </c>
       <c r="P15" s="73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q15" s="73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4086,20 +4082,16 @@
         <v>9</v>
       </c>
       <c r="D16" s="72">
-        <f>+I19</f>
-        <v>0</v>
+        <v>0.248864529029136</v>
       </c>
       <c r="E16" s="72">
-        <f t="shared" ref="E16:G16" si="4">+J19</f>
-        <v>0</v>
+        <v>0.39624966997320399</v>
       </c>
       <c r="F16" s="72">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.57629676926180995</v>
       </c>
       <c r="G16" s="72">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.36210216060626799</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -4109,15 +4101,15 @@
         <v>0</v>
       </c>
       <c r="O16" s="72">
-        <f t="shared" ref="O16:Q16" si="5">+T19</f>
+        <f t="shared" ref="O16:Q16" si="3">+T19</f>
         <v>0</v>
       </c>
       <c r="P16" s="72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q16" s="72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4127,15 +4119,15 @@
         <v>Bachelor +</v>
       </c>
       <c r="E17" s="73" t="str">
-        <f t="shared" ref="E17:G17" si="6">+IF(N18=0,"",N18)</f>
+        <f t="shared" ref="E17:G17" si="4">+IF(N18=0,"",N18)</f>
         <v/>
       </c>
       <c r="F17" s="73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G17" s="73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N17" s="73" t="str">
@@ -4143,15 +4135,15 @@
         <v/>
       </c>
       <c r="O17" s="73" t="str">
-        <f t="shared" ref="O17:Q17" si="7">+IF(X18=0,"",X18)</f>
+        <f t="shared" ref="O17:Q17" si="5">+IF(X18=0,"",X18)</f>
         <v/>
       </c>
       <c r="P17" s="73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q17" s="73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4160,20 +4152,16 @@
         <v>10</v>
       </c>
       <c r="D18" s="72">
-        <f>+I20</f>
-        <v>0</v>
+        <v>0.248864529029136</v>
       </c>
       <c r="E18" s="72">
-        <f t="shared" ref="E18:G18" si="8">+J20</f>
-        <v>0</v>
+        <v>1.0367633249888799</v>
       </c>
       <c r="F18" s="72">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.18895009228718701</v>
       </c>
       <c r="G18" s="72">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.1497210541473601E-2</v>
       </c>
       <c r="M18" t="s">
         <v>10</v>
@@ -4183,15 +4171,15 @@
         <v>0</v>
       </c>
       <c r="O18" s="72">
-        <f t="shared" ref="O18:Q18" si="9">+T20</f>
+        <f t="shared" ref="O18:Q18" si="6">+T20</f>
         <v>0</v>
       </c>
       <c r="P18" s="72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q18" s="72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4202,15 +4190,15 @@
         <v/>
       </c>
       <c r="E19" s="74" t="str">
-        <f t="shared" ref="E19:G19" si="10">+IF(N19=0,"",N19)</f>
+        <f t="shared" ref="E19:G19" si="7">+IF(N19=0,"",N19)</f>
         <v/>
       </c>
       <c r="F19" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G19" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M19" s="19"/>
@@ -4219,15 +4207,15 @@
         <v/>
       </c>
       <c r="O19" s="74" t="str">
-        <f t="shared" ref="O19:Q19" si="11">+IF(X19=0,"",X19)</f>
+        <f t="shared" ref="O19:Q19" si="8">+IF(X19=0,"",X19)</f>
         <v/>
       </c>
       <c r="P19" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q19" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4293,20 +4281,16 @@
         <v>93</v>
       </c>
       <c r="D24" s="72">
-        <f>+I28</f>
-        <v>0</v>
+        <v>0.25134277858382098</v>
       </c>
       <c r="E24" s="72">
-        <f t="shared" ref="E24" si="12">+J28</f>
-        <v>0</v>
+        <v>0.32254135335353401</v>
       </c>
       <c r="F24" s="72">
-        <f t="shared" ref="F24" si="13">+K28</f>
-        <v>0</v>
+        <v>0.98487729082102604</v>
       </c>
       <c r="G24" s="72">
-        <f t="shared" ref="G24" si="14">+L28</f>
-        <v>0</v>
+        <v>1.8987244298642E-2</v>
       </c>
       <c r="M24" t="s">
         <v>93</v>
@@ -4316,15 +4300,15 @@
         <v>0</v>
       </c>
       <c r="O24" s="72">
-        <f t="shared" ref="O24" si="15">+T28</f>
+        <f t="shared" ref="O24" si="9">+T28</f>
         <v>0</v>
       </c>
       <c r="P24" s="72">
-        <f t="shared" ref="P24" si="16">+U28</f>
+        <f t="shared" ref="P24" si="10">+U28</f>
         <v>0</v>
       </c>
       <c r="Q24" s="72">
-        <f t="shared" ref="Q24" si="17">+V28</f>
+        <f t="shared" ref="Q24" si="11">+V28</f>
         <v>0</v>
       </c>
     </row>
@@ -4334,15 +4318,15 @@
         <v/>
       </c>
       <c r="E25" s="73" t="str">
-        <f t="shared" ref="E25" si="18">+IF(N27=0,"",N27)</f>
+        <f t="shared" ref="E25" si="12">+IF(N27=0,"",N27)</f>
         <v/>
       </c>
       <c r="F25" s="73" t="str">
-        <f t="shared" ref="F25" si="19">+IF(O27=0,"",O27)</f>
+        <f t="shared" ref="F25" si="13">+IF(O27=0,"",O27)</f>
         <v/>
       </c>
       <c r="G25" s="73" t="str">
-        <f t="shared" ref="G25" si="20">+IF(P27=0,"",P27)</f>
+        <f t="shared" ref="G25" si="14">+IF(P27=0,"",P27)</f>
         <v/>
       </c>
       <c r="N25" s="73" t="str">
@@ -4350,15 +4334,15 @@
         <v/>
       </c>
       <c r="O25" s="73" t="str">
-        <f t="shared" ref="O25" si="21">+IF(X27=0,"",X27)</f>
+        <f t="shared" ref="O25" si="15">+IF(X27=0,"",X27)</f>
         <v/>
       </c>
       <c r="P25" s="73" t="str">
-        <f t="shared" ref="P25" si="22">+IF(Y27=0,"",Y27)</f>
+        <f t="shared" ref="P25" si="16">+IF(Y27=0,"",Y27)</f>
         <v/>
       </c>
       <c r="Q25" s="73" t="str">
-        <f t="shared" ref="Q25" si="23">+IF(Z27=0,"",Z27)</f>
+        <f t="shared" ref="Q25" si="17">+IF(Z27=0,"",Z27)</f>
         <v/>
       </c>
     </row>
@@ -4367,20 +4351,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="72">
-        <f>+I29</f>
-        <v>0</v>
+        <v>0.25134277858382098</v>
       </c>
       <c r="E26" s="72">
-        <f t="shared" ref="E26" si="24">+J29</f>
-        <v>0</v>
+        <v>0.41004640319750302</v>
       </c>
       <c r="F26" s="72">
-        <f t="shared" ref="F26" si="25">+K29</f>
-        <v>0</v>
+        <v>0.60638515811007299</v>
       </c>
       <c r="G26" s="72">
-        <f t="shared" ref="G26" si="26">+L29</f>
-        <v>0</v>
+        <v>0.32519855482222199</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -4390,15 +4370,15 @@
         <v>0</v>
       </c>
       <c r="O26" s="72">
-        <f t="shared" ref="O26" si="27">+T29</f>
+        <f t="shared" ref="O26" si="18">+T29</f>
         <v>0</v>
       </c>
       <c r="P26" s="72">
-        <f t="shared" ref="P26" si="28">+U29</f>
+        <f t="shared" ref="P26" si="19">+U29</f>
         <v>0</v>
       </c>
       <c r="Q26" s="72">
-        <f t="shared" ref="Q26" si="29">+V29</f>
+        <f t="shared" ref="Q26" si="20">+V29</f>
         <v>0</v>
       </c>
     </row>
@@ -4408,15 +4388,15 @@
         <v>Bachelor +</v>
       </c>
       <c r="E27" s="73" t="str">
-        <f t="shared" ref="E27" si="30">+IF(N28=0,"",N28)</f>
+        <f t="shared" ref="E27" si="21">+IF(N28=0,"",N28)</f>
         <v/>
       </c>
       <c r="F27" s="73" t="str">
-        <f t="shared" ref="F27" si="31">+IF(O28=0,"",O28)</f>
+        <f t="shared" ref="F27" si="22">+IF(O28=0,"",O28)</f>
         <v/>
       </c>
       <c r="G27" s="73" t="str">
-        <f t="shared" ref="G27" si="32">+IF(P28=0,"",P28)</f>
+        <f t="shared" ref="G27" si="23">+IF(P28=0,"",P28)</f>
         <v/>
       </c>
       <c r="N27" s="73" t="str">
@@ -4424,15 +4404,15 @@
         <v/>
       </c>
       <c r="O27" s="73" t="str">
-        <f t="shared" ref="O27" si="33">+IF(X28=0,"",X28)</f>
+        <f t="shared" ref="O27" si="24">+IF(X28=0,"",X28)</f>
         <v/>
       </c>
       <c r="P27" s="73" t="str">
-        <f t="shared" ref="P27" si="34">+IF(Y28=0,"",Y28)</f>
+        <f t="shared" ref="P27" si="25">+IF(Y28=0,"",Y28)</f>
         <v/>
       </c>
       <c r="Q27" s="73" t="str">
-        <f t="shared" ref="Q27" si="35">+IF(Z28=0,"",Z28)</f>
+        <f t="shared" ref="Q27" si="26">+IF(Z28=0,"",Z28)</f>
         <v/>
       </c>
     </row>
@@ -4441,20 +4421,16 @@
         <v>10</v>
       </c>
       <c r="D28" s="72">
-        <f>+I30</f>
-        <v>0</v>
+        <v>0.25134277858382098</v>
       </c>
       <c r="E28" s="72">
-        <f t="shared" ref="E28" si="36">+J30</f>
-        <v>0</v>
+        <v>1.0410729722629299</v>
       </c>
       <c r="F28" s="72">
-        <f t="shared" ref="F28" si="37">+K30</f>
-        <v>0</v>
+        <v>0.189768065063466</v>
       </c>
       <c r="G28" s="72">
-        <f t="shared" ref="G28" si="38">+L30</f>
-        <v>0</v>
+        <v>1.6130410953435301E-2</v>
       </c>
       <c r="M28" t="s">
         <v>10</v>
@@ -4464,15 +4440,15 @@
         <v>0</v>
       </c>
       <c r="O28" s="72">
-        <f t="shared" ref="O28" si="39">+T30</f>
+        <f t="shared" ref="O28" si="27">+T30</f>
         <v>0</v>
       </c>
       <c r="P28" s="72">
-        <f t="shared" ref="P28" si="40">+U30</f>
+        <f t="shared" ref="P28" si="28">+U30</f>
         <v>0</v>
       </c>
       <c r="Q28" s="72">
-        <f t="shared" ref="Q28" si="41">+V30</f>
+        <f t="shared" ref="Q28" si="29">+V30</f>
         <v>0</v>
       </c>
     </row>
@@ -4483,15 +4459,15 @@
         <v/>
       </c>
       <c r="E29" s="74" t="str">
-        <f t="shared" ref="E29" si="42">+IF(N29=0,"",N29)</f>
+        <f t="shared" ref="E29" si="30">+IF(N29=0,"",N29)</f>
         <v/>
       </c>
       <c r="F29" s="74" t="str">
-        <f t="shared" ref="F29" si="43">+IF(O29=0,"",O29)</f>
+        <f t="shared" ref="F29" si="31">+IF(O29=0,"",O29)</f>
         <v/>
       </c>
       <c r="G29" s="74" t="str">
-        <f t="shared" ref="G29" si="44">+IF(P29=0,"",P29)</f>
+        <f t="shared" ref="G29" si="32">+IF(P29=0,"",P29)</f>
         <v/>
       </c>
       <c r="M29" s="19"/>
@@ -4500,15 +4476,15 @@
         <v/>
       </c>
       <c r="O29" s="74" t="str">
-        <f t="shared" ref="O29" si="45">+IF(X29=0,"",X29)</f>
+        <f t="shared" ref="O29" si="33">+IF(X29=0,"",X29)</f>
         <v/>
       </c>
       <c r="P29" s="74" t="str">
-        <f t="shared" ref="P29" si="46">+IF(Y29=0,"",Y29)</f>
+        <f t="shared" ref="P29" si="34">+IF(Y29=0,"",Y29)</f>
         <v/>
       </c>
       <c r="Q29" s="74" t="str">
-        <f t="shared" ref="Q29" si="47">+IF(Z29=0,"",Z29)</f>
+        <f t="shared" ref="Q29" si="35">+IF(Z29=0,"",Z29)</f>
         <v/>
       </c>
     </row>
@@ -4574,20 +4550,16 @@
         <v>93</v>
       </c>
       <c r="D34" s="72">
-        <f>+I38</f>
-        <v>0</v>
+        <v>0.25217432073694801</v>
       </c>
       <c r="E34" s="72">
-        <f t="shared" ref="E34" si="48">+J38</f>
-        <v>0</v>
+        <v>0.31063825551868701</v>
       </c>
       <c r="F34" s="72">
-        <f t="shared" ref="F34" si="49">+K38</f>
-        <v>0</v>
+        <v>0.99924198498697803</v>
       </c>
       <c r="G34" s="72">
-        <f t="shared" ref="G34" si="50">+L38</f>
-        <v>0</v>
+        <v>2.0848089600599799E-2</v>
       </c>
       <c r="M34" t="s">
         <v>93</v>
@@ -4597,15 +4569,15 @@
         <v>0</v>
       </c>
       <c r="O34" s="72">
-        <f t="shared" ref="O34" si="51">+T38</f>
+        <f t="shared" ref="O34" si="36">+T38</f>
         <v>0</v>
       </c>
       <c r="P34" s="72">
-        <f t="shared" ref="P34" si="52">+U38</f>
+        <f t="shared" ref="P34" si="37">+U38</f>
         <v>0</v>
       </c>
       <c r="Q34" s="72">
-        <f t="shared" ref="Q34" si="53">+V38</f>
+        <f t="shared" ref="Q34" si="38">+V38</f>
         <v>0</v>
       </c>
     </row>
@@ -4615,15 +4587,15 @@
         <v/>
       </c>
       <c r="E35" s="73" t="str">
-        <f t="shared" ref="E35" si="54">+IF(N37=0,"",N37)</f>
+        <f t="shared" ref="E35" si="39">+IF(N37=0,"",N37)</f>
         <v/>
       </c>
       <c r="F35" s="73" t="str">
-        <f t="shared" ref="F35" si="55">+IF(O37=0,"",O37)</f>
+        <f t="shared" ref="F35" si="40">+IF(O37=0,"",O37)</f>
         <v/>
       </c>
       <c r="G35" s="73" t="str">
-        <f t="shared" ref="G35" si="56">+IF(P37=0,"",P37)</f>
+        <f t="shared" ref="G35" si="41">+IF(P37=0,"",P37)</f>
         <v/>
       </c>
       <c r="N35" s="73" t="str">
@@ -4631,15 +4603,15 @@
         <v/>
       </c>
       <c r="O35" s="73" t="str">
-        <f t="shared" ref="O35" si="57">+IF(X37=0,"",X37)</f>
+        <f t="shared" ref="O35" si="42">+IF(X37=0,"",X37)</f>
         <v/>
       </c>
       <c r="P35" s="73" t="str">
-        <f t="shared" ref="P35" si="58">+IF(Y37=0,"",Y37)</f>
+        <f t="shared" ref="P35" si="43">+IF(Y37=0,"",Y37)</f>
         <v/>
       </c>
       <c r="Q35" s="73" t="str">
-        <f t="shared" ref="Q35" si="59">+IF(Z37=0,"",Z37)</f>
+        <f t="shared" ref="Q35" si="44">+IF(Z37=0,"",Z37)</f>
         <v/>
       </c>
     </row>
@@ -4648,20 +4620,16 @@
         <v>9</v>
       </c>
       <c r="D36" s="72">
-        <f>+I39</f>
-        <v>0</v>
+        <v>0.25217432073694801</v>
       </c>
       <c r="E36" s="72">
-        <f t="shared" ref="E36" si="60">+J39</f>
-        <v>0</v>
+        <v>0.42128578039923997</v>
       </c>
       <c r="F36" s="72">
-        <f t="shared" ref="F36" si="61">+K39</f>
-        <v>0</v>
+        <v>0.62471215397248403</v>
       </c>
       <c r="G36" s="72">
-        <f t="shared" ref="G36" si="62">+L39</f>
-        <v>0</v>
+        <v>0.30312111781804502</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -4671,15 +4639,15 @@
         <v>0</v>
       </c>
       <c r="O36" s="72">
-        <f t="shared" ref="O36" si="63">+T39</f>
+        <f t="shared" ref="O36" si="45">+T39</f>
         <v>0</v>
       </c>
       <c r="P36" s="72">
-        <f t="shared" ref="P36" si="64">+U39</f>
+        <f t="shared" ref="P36" si="46">+U39</f>
         <v>0</v>
       </c>
       <c r="Q36" s="72">
-        <f t="shared" ref="Q36" si="65">+V39</f>
+        <f t="shared" ref="Q36" si="47">+V39</f>
         <v>0</v>
       </c>
     </row>
@@ -4689,15 +4657,15 @@
         <v>Bachelor +</v>
       </c>
       <c r="E37" s="73" t="str">
-        <f t="shared" ref="E37" si="66">+IF(N38=0,"",N38)</f>
+        <f t="shared" ref="E37" si="48">+IF(N38=0,"",N38)</f>
         <v/>
       </c>
       <c r="F37" s="73" t="str">
-        <f t="shared" ref="F37" si="67">+IF(O38=0,"",O38)</f>
+        <f t="shared" ref="F37" si="49">+IF(O38=0,"",O38)</f>
         <v/>
       </c>
       <c r="G37" s="73" t="str">
-        <f t="shared" ref="G37" si="68">+IF(P38=0,"",P38)</f>
+        <f t="shared" ref="G37" si="50">+IF(P38=0,"",P38)</f>
         <v/>
       </c>
       <c r="N37" s="73" t="str">
@@ -4705,15 +4673,15 @@
         <v/>
       </c>
       <c r="O37" s="73" t="str">
-        <f t="shared" ref="O37" si="69">+IF(X38=0,"",X38)</f>
+        <f t="shared" ref="O37" si="51">+IF(X38=0,"",X38)</f>
         <v/>
       </c>
       <c r="P37" s="73" t="str">
-        <f t="shared" ref="P37" si="70">+IF(Y38=0,"",Y38)</f>
+        <f t="shared" ref="P37" si="52">+IF(Y38=0,"",Y38)</f>
         <v/>
       </c>
       <c r="Q37" s="73" t="str">
-        <f t="shared" ref="Q37" si="71">+IF(Z38=0,"",Z38)</f>
+        <f t="shared" ref="Q37" si="53">+IF(Z38=0,"",Z38)</f>
         <v/>
       </c>
     </row>
@@ -4722,20 +4690,16 @@
         <v>10</v>
       </c>
       <c r="D38" s="72">
-        <f>+I40</f>
-        <v>0</v>
+        <v>0.25217432073694801</v>
       </c>
       <c r="E38" s="72">
-        <f t="shared" ref="E38" si="72">+J40</f>
-        <v>0</v>
+        <v>1.0401071898605001</v>
       </c>
       <c r="F38" s="72">
-        <f t="shared" ref="F38" si="73">+K40</f>
-        <v>0</v>
+        <v>0.19734885403390101</v>
       </c>
       <c r="G38" s="72">
-        <f t="shared" ref="G38" si="74">+L40</f>
-        <v>0</v>
+        <v>1.06629342767663E-2</v>
       </c>
       <c r="M38" t="s">
         <v>10</v>
@@ -4745,15 +4709,15 @@
         <v>0</v>
       </c>
       <c r="O38" s="72">
-        <f t="shared" ref="O38" si="75">+T40</f>
+        <f t="shared" ref="O38" si="54">+T40</f>
         <v>0</v>
       </c>
       <c r="P38" s="72">
-        <f t="shared" ref="P38" si="76">+U40</f>
+        <f t="shared" ref="P38" si="55">+U40</f>
         <v>0</v>
       </c>
       <c r="Q38" s="72">
-        <f t="shared" ref="Q38" si="77">+V40</f>
+        <f t="shared" ref="Q38" si="56">+V40</f>
         <v>0</v>
       </c>
     </row>
@@ -4764,15 +4728,15 @@
         <v/>
       </c>
       <c r="E39" s="74" t="str">
-        <f t="shared" ref="E39" si="78">+IF(N39=0,"",N39)</f>
+        <f t="shared" ref="E39" si="57">+IF(N39=0,"",N39)</f>
         <v/>
       </c>
       <c r="F39" s="74" t="str">
-        <f t="shared" ref="F39" si="79">+IF(O39=0,"",O39)</f>
+        <f t="shared" ref="F39" si="58">+IF(O39=0,"",O39)</f>
         <v/>
       </c>
       <c r="G39" s="74" t="str">
-        <f t="shared" ref="G39" si="80">+IF(P39=0,"",P39)</f>
+        <f t="shared" ref="G39" si="59">+IF(P39=0,"",P39)</f>
         <v/>
       </c>
       <c r="M39" s="19"/>
@@ -4781,15 +4745,15 @@
         <v/>
       </c>
       <c r="O39" s="74" t="str">
-        <f t="shared" ref="O39" si="81">+IF(X39=0,"",X39)</f>
+        <f t="shared" ref="O39" si="60">+IF(X39=0,"",X39)</f>
         <v/>
       </c>
       <c r="P39" s="74" t="str">
-        <f t="shared" ref="P39" si="82">+IF(Y39=0,"",Y39)</f>
+        <f t="shared" ref="P39" si="61">+IF(Y39=0,"",Y39)</f>
         <v/>
       </c>
       <c r="Q39" s="74" t="str">
-        <f t="shared" ref="Q39" si="83">+IF(Z39=0,"",Z39)</f>
+        <f t="shared" ref="Q39" si="62">+IF(Z39=0,"",Z39)</f>
         <v/>
       </c>
     </row>
